--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1626740.864309025</v>
+        <v>1623723.273908089</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>297.0756516777809</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3305306010774</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>83.8327013951469</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>14.48345164522468</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>93.6300723051348</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>58.47904119396041</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>190.6879014933977</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.213740718609</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>38.09428873746688</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>341.7625865374715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.49690079789915</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>218.1740988936869</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185858</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7644211441605784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>67.61524188852272</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>14.73664328357187</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>55.03008280521332</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.3419076393841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.1707519847953</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185854</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.9614612674402</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>193.1209049644559</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>14.7366432835706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>66.14085215535448</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>60.61661699143651</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>155.8385935972322</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>75.59237361796718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>69.96892003562412</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>72.15574705829953</v>
       </c>
       <c r="G43" t="n">
-        <v>118.4898845065132</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>22.62632676293252</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4153,7 +4153,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>98.76132339851772</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1336.435086552838</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1723.03492661696</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4398,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="T4" t="n">
-        <v>429.1610646658629</v>
+        <v>2292.27732597463</v>
       </c>
       <c r="U4" t="n">
-        <v>429.1610646658629</v>
+        <v>2292.27732597463</v>
       </c>
       <c r="V4" t="n">
-        <v>429.1610646658629</v>
+        <v>2037.592837768743</v>
       </c>
       <c r="W4" t="n">
-        <v>429.1610646658629</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X4" t="n">
-        <v>429.1610646658629</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>429.1610646658629</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,31 +4562,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500978</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>2153.11138992122</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y5" t="n">
-        <v>1762.972057945408</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.0980231475335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>506.0980231475335</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>506.0980231475335</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>506.0980231475335</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.0980231475335</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1634.354746806821</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1248.566494208577</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>837.5805894189696</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>419.6167813171564</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>92.42206135315928</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587812</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587812</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D10" t="n">
-        <v>365.6939024587812</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E10" t="n">
-        <v>365.6939024587812</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>365.6939024587812</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>365.6939024587812</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>207.9455298913113</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.61661898995956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587812</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587812</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587812</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587812</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587812</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587812</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,16 +5057,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,16 +5106,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,37 +5288,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,16 +5343,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
@@ -5364,7 +5364,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.007103038344</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>675.007103038344</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>675.007103038344</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
         <v>674.2349604684848</v>
@@ -5431,7 +5431,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,10 +5510,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5531,13 +5531,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3941.006808105545</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>3772.070625177638</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>3621.953985765302</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>3474.040892182909</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>4571.437402977332</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>4343.447852079315</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y19" t="n">
-        <v>4122.655272935785</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>1027.850635690702</v>
       </c>
       <c r="C22" t="n">
         <v>972.2646934632137</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y22" t="n">
-        <v>1322.84934122136</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372321</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3484.747546292011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556161</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774858</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557068</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>3889.032311912341</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>3889.032311912341</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>3720.856990232162</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.438981780105</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576117</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491669</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281175</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494733</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288846</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="W25" t="n">
-        <v>3492.843747251885</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.945405494735</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.6878657662453</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1405.015804631195</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1405.015804631195</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1405.015804631195</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1115.887165844753</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1115.887165844753</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>826.4699958077928</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X28" t="n">
-        <v>598.4804449097754</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="Y28" t="n">
-        <v>377.6878657662453</v>
+        <v>825.3747459653033</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>579.0685056491545</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1323227212476</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D31" t="n">
-        <v>260.0156833089119</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E31" t="n">
-        <v>112.1025897265188</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6658,13 +6658,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X31" t="n">
-        <v>981.5095496229244</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y31" t="n">
-        <v>760.7169704793943</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>4458.413529040523</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>4289.477346112616</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>4139.36070670028</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>3991.447613117887</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>3844.557665619977</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3676.382343939797</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3525.964335487741</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1326.612261067772</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>1037.48362228133</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V34" t="n">
-        <v>782.7991340754431</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W34" t="n">
-        <v>493.3819640384826</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>4640.061993870762</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6953,7 +6953,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4073.011257337221</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C37" t="n">
-        <v>3904.075074409314</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>3753.958434996978</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>3606.045341414585</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>4703.441852209007</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>4475.45230131099</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y37" t="n">
-        <v>4254.65972216746</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775516</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>898.5039869983195</v>
+        <v>318.0094076762823</v>
       </c>
       <c r="C40" t="n">
-        <v>898.5039869983195</v>
+        <v>318.0094076762823</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>167.8927682639466</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>167.8927682639466</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>1187.92115703528</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W40" t="n">
-        <v>898.5039869983195</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X40" t="n">
-        <v>898.5039869983195</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y40" t="n">
-        <v>898.5039869983195</v>
+        <v>499.657872506522</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7409,25 +7409,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>3033.644633014775</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>3340.964766294737</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>3670.827393958769</v>
       </c>
       <c r="O42" t="n">
-        <v>2302.237516093321</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3578.842145943456</v>
+        <v>600.2296059587558</v>
       </c>
       <c r="C43" t="n">
-        <v>3578.842145943456</v>
+        <v>600.2296059587558</v>
       </c>
       <c r="D43" t="n">
-        <v>3578.842145943456</v>
+        <v>600.2296059587558</v>
       </c>
       <c r="E43" t="n">
-        <v>3578.842145943456</v>
+        <v>600.2296059587558</v>
       </c>
       <c r="F43" t="n">
-        <v>3578.842145943456</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>4571.72593422785</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>4317.041446021964</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>4027.624275985003</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X43" t="n">
-        <v>3799.634725086986</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="Y43" t="n">
-        <v>3578.842145943456</v>
+        <v>781.8780707889955</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7731,13 +7731,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>565.9270610048577</v>
+        <v>4503.139178847509</v>
       </c>
       <c r="C46" t="n">
-        <v>565.9270610048577</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>4184.086356507267</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T46" t="n">
-        <v>1399.157358034147</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U46" t="n">
-        <v>1110.028719247705</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V46" t="n">
-        <v>855.3442310418184</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="W46" t="n">
-        <v>565.9270610048577</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="X46" t="n">
-        <v>565.9270610048577</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="Y46" t="n">
-        <v>565.9270610048577</v>
+        <v>4525.994054365623</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298392</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229575</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229575</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1147370139957</v>
       </c>
       <c r="P42" t="n">
-        <v>29.47535963978262</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,16 +11379,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6695415024086</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>112.2167382934146</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>130.6844047393594</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>112.2167382934145</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.2427457127107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0.2484934794766929</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.00289113635259</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>32.58875042458129</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>44.27839330891752</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>160.9309440669527</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25372,10 +25372,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>130.6844047393588</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>73.02309940024517</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>75.45212798730712</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>73.26530096463172</v>
       </c>
       <c r="G43" t="n">
-        <v>48.00368395686435</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>157.2056534190048</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>122.7862376598715</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852508</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852502</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852502</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,43 +26470,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336561.6391011394</v>
+        <v>-336976.8536106067</v>
       </c>
       <c r="C6" t="n">
-        <v>253406.2401134051</v>
+        <v>252991.0256039378</v>
       </c>
       <c r="D6" t="n">
-        <v>253406.240113405</v>
+        <v>252991.0256039378</v>
       </c>
       <c r="E6" t="n">
-        <v>-162623.9913946715</v>
+        <v>-162958.1603618015</v>
       </c>
       <c r="F6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150946</v>
       </c>
       <c r="G6" t="n">
-        <v>362536.0450822241</v>
+        <v>362201.8761150951</v>
       </c>
       <c r="H6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150951</v>
       </c>
       <c r="I6" t="n">
-        <v>362536.0450822241</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="J6" t="n">
-        <v>186112.8258896313</v>
+        <v>185778.6569225017</v>
       </c>
       <c r="K6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150947</v>
       </c>
       <c r="L6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="M6" t="n">
-        <v>227735.0298483871</v>
+        <v>227400.8608812576</v>
       </c>
       <c r="N6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150949</v>
       </c>
       <c r="O6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150946</v>
       </c>
       <c r="P6" t="n">
-        <v>362536.0450822244</v>
+        <v>362201.8761150945</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,31 +26750,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>68.19724009322664</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5455151406341</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,13 +27436,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>141.2024040629374</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913663</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>288.3002977671269</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>311.2520594845086</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>61.44974183043033</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.49591467042819</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>113.8370275073944</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,7 +27910,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.47535211858212</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>27.70305839063784</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>6.861006564397371</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32625,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>588.4784392551038</v>
       </c>
       <c r="P42" t="n">
-        <v>236.5687745713073</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1623723.273908089</v>
+        <v>1699252.943572893</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3305306010774</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>318.8441701540459</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>92.90596609416677</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>14.48345164522468</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>93.6300723051348</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>215.2727475041762</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>133.213740718609</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>30.4622284819023</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>38.09428873746688</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>166.0695714233306</v>
       </c>
       <c r="T10" t="n">
-        <v>218.1740988936869</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>253.4950710062561</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.61524188852272</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>74.61215761783147</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>55.03008280521332</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.1707519847953</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>193.1209049644559</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>102.1274204128027</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>127.8144229774396</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>110.132701067095</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>66.14085215535448</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3433,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>14.73664328357096</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>69.96892003562412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>155.8385935972305</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3791,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>72.15574705829953</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>250.0068403603052</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.62632676293252</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4153,7 +4155,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>63.17794444905905</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1215.881273373638</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>846.9187564332267</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>846.9187564332267</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>846.9187564332267</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2143.878095525466</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.48111343776</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2519.585513306029</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>2519.585513306029</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>2292.27732597463</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>2292.27732597463</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>2037.592837768743</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>329.7728273507099</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1130.934501327943</v>
+        <v>1374.814428194113</v>
       </c>
       <c r="C5" t="n">
-        <v>1130.934501327943</v>
+        <v>1374.814428194113</v>
       </c>
       <c r="D5" t="n">
-        <v>1130.934501327943</v>
+        <v>1016.548729587363</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1016.548729587363</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y5" t="n">
-        <v>1130.934501327943</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4764,13 @@
         <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.620445413572</v>
+        <v>1358.140854479382</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.620445413572</v>
+        <v>989.1783375389703</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.354746806821</v>
+        <v>630.9126389322198</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.566494208577</v>
+        <v>245.1243863339756</v>
       </c>
       <c r="F8" t="n">
-        <v>837.5805894189696</v>
+        <v>238.1788855847721</v>
       </c>
       <c r="G8" t="n">
-        <v>419.6167813171564</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>92.42206135315928</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.620445413572</v>
+        <v>1744.740694543504</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.6044479702274</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="C10" t="n">
-        <v>359.6044479702274</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6044479702274</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="T10" t="n">
-        <v>359.6044479702274</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="U10" t="n">
-        <v>359.6044479702274</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="V10" t="n">
-        <v>359.6044479702274</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="W10" t="n">
-        <v>359.6044479702274</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="X10" t="n">
-        <v>359.6044479702274</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.6044479702274</v>
+        <v>382.8183646524922</v>
       </c>
     </row>
     <row r="11">
@@ -5042,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5270,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,25 +5345,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>822.148054050878</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>822.148054050878</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,7 +5433,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>822.148054050878</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,7 +5512,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.881333182379</v>
@@ -5531,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.499100520942</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.499100520942</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1027.850635690702</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
         <v>972.2646934632137</v>
@@ -5911,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5947,13 +5949,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y22" t="n">
-        <v>1209.499100520942</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5980,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5990,22 +5992,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3889.032311912341</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.032311912341</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3720.856990232162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.438981780105</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4036.945405494735</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>4036.945405494735</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>4036.945405494735</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>4036.945405494735</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>825.3747459653033</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3747459653033</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529675</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W28" t="n">
-        <v>1020.446367141521</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X28" t="n">
-        <v>825.3747459653033</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y28" t="n">
-        <v>825.3747459653033</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,25 +6454,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6482,10 +6484,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>337.8571605933279</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6655,16 +6657,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,7 +6697,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
@@ -6716,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4458.413529040523</v>
+        <v>785.4801130615101</v>
       </c>
       <c r="C34" t="n">
-        <v>4289.477346112616</v>
+        <v>785.4801130615101</v>
       </c>
       <c r="D34" t="n">
-        <v>4139.36070670028</v>
+        <v>785.4801130615101</v>
       </c>
       <c r="E34" t="n">
-        <v>3991.447613117887</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>3844.557665619977</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>3676.382343939797</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3525.964335487741</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y34" t="n">
-        <v>4640.061993870762</v>
+        <v>967.1285778917498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>485.5200852635878</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>879.2482765610114</v>
+        <v>3941.006808105545</v>
       </c>
       <c r="C37" t="n">
-        <v>710.3120936331045</v>
+        <v>3772.070625177638</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>3621.953985765302</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>3474.040892182909</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="X37" t="n">
-        <v>1281.689320534781</v>
+        <v>4343.447852079315</v>
       </c>
       <c r="Y37" t="n">
-        <v>1060.896741391251</v>
+        <v>4122.655272935785</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,34 +7168,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>318.0094076762823</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C40" t="n">
-        <v>318.0094076762823</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D40" t="n">
-        <v>167.8927682639466</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E40" t="n">
-        <v>167.8927682639466</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>720.4504516500522</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>720.4504516500522</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y40" t="n">
-        <v>499.657872506522</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7406,19 +7408,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7430,13 +7432,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
-        <v>3340.964766294737</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3670.827393958769</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>600.2296059587558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>600.2296059587558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>600.2296059587558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>600.2296059587558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7597,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.867621687013</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X43" t="n">
-        <v>781.8780707889955</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.8780707889955</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,13 +7639,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7652,25 +7654,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4503.139178847509</v>
+        <v>4391.604587469459</v>
       </c>
       <c r="C46" t="n">
-        <v>4334.202995919602</v>
+        <v>4222.668404541552</v>
       </c>
       <c r="D46" t="n">
-        <v>4184.086356507267</v>
+        <v>4072.551765129216</v>
       </c>
       <c r="E46" t="n">
-        <v>4036.173262924874</v>
+        <v>3924.638671546823</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426963</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746784</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T46" t="n">
-        <v>4525.994054365623</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U46" t="n">
-        <v>4525.994054365623</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V46" t="n">
-        <v>4525.994054365623</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W46" t="n">
-        <v>4525.994054365623</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="X46" t="n">
-        <v>4525.994054365623</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="Y46" t="n">
-        <v>4525.994054365623</v>
+        <v>4573.253052299699</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9012,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298392</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.409182577676</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>306.1147370139957</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>33.0279273303349</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.2167382934146</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>70.80889040509977</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>112.2167382934145</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2484934794766929</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24658,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>32.58875042458129</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>116.4572329392921</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>21.09940539009656</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>36.30126157947413</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>44.27839330891752</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>130.6844047393603</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25372,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>75.45212798730712</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>73.26530096463172</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.2056534190048</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>155.4067089030357</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="F2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852507</v>
-      </c>
       <c r="H2" t="n">
-        <v>469234.8716852508</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
@@ -26341,19 +26343,19 @@
         <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852506</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26445,7 +26447,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26473,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26494,10 +26496,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26506,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106067</v>
+        <v>-336976.8536106066</v>
       </c>
       <c r="C6" t="n">
         <v>252991.0256039378</v>
       </c>
       <c r="D6" t="n">
-        <v>252991.0256039378</v>
+        <v>252991.0256039376</v>
       </c>
       <c r="E6" t="n">
-        <v>-162958.1603618015</v>
+        <v>-162958.1603618013</v>
       </c>
       <c r="F6" t="n">
-        <v>362201.8761150946</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="G6" t="n">
-        <v>362201.8761150951</v>
+        <v>362201.8761150945</v>
       </c>
       <c r="H6" t="n">
-        <v>362201.8761150951</v>
+        <v>362201.8761150947</v>
       </c>
       <c r="I6" t="n">
         <v>362201.8761150948</v>
@@ -26546,22 +26548,22 @@
         <v>185778.6569225017</v>
       </c>
       <c r="K6" t="n">
-        <v>362201.8761150947</v>
+        <v>362201.8761150946</v>
       </c>
       <c r="L6" t="n">
         <v>362201.8761150948</v>
       </c>
       <c r="M6" t="n">
-        <v>227400.8608812576</v>
+        <v>227400.8608812577</v>
       </c>
       <c r="N6" t="n">
-        <v>362201.8761150949</v>
+        <v>362201.8761150946</v>
       </c>
       <c r="O6" t="n">
+        <v>362201.8761150945</v>
+      </c>
+      <c r="P6" t="n">
         <v>362201.8761150946</v>
-      </c>
-      <c r="P6" t="n">
-        <v>362201.8761150945</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26750,10 +26752,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5455151406341</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>8.908088316089049</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>86.92601408777053</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>272.0395466913663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>288.3002977671269</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>191.6032982375352</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>11.75884232099568</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>92.49591467042819</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>383.3219415388927</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>113.8370275073944</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>46.07596752668834</v>
       </c>
       <c r="T10" t="n">
-        <v>6.861006564397371</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32227,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,46 +32466,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32545,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,7 +35734,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36446,7 +36448,7 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
@@ -36455,7 +36457,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36929,7 +36931,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37385,10 +37387,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,13 +37399,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37871,16 +37873,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>588.4784392551038</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1699252.943572893</v>
+        <v>1692235.928681183</v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>250.1325537001773</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,19 +712,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>318.8441701540459</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.90596609416677</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>25.08467608327369</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>215.2727475041762</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>78.29200324836461</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>134.6751203255735</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>30.4622284819023</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>283.2502426857015</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1186,10 +1186,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>166.0695714233306</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>99.44420492154083</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>12.68762643336725</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>180.0937163301527</v>
       </c>
       <c r="W16" t="n">
-        <v>253.4950710062561</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>74.61215761783147</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>31.26947999741145</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2259,7 +2259,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>136.9575509524584</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.1274204128027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>127.8144229774396</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>110.132701067095</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>253.1488561805826</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>14.73664328357096</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>79.83280908015534</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>155.8385935972305</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>276.1491823570823</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>41.18921109332413</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>250.0068403603052</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>53.68612347276125</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>63.17794444905905</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2143.878095525466</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1791.109440255352</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1791.109440255352</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.109440255352</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>79.28103847013585</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>79.28103847013585</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>79.28103847013585</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>79.28103847013585</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>79.28103847013585</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>79.28103847013585</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.7728273507099</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1374.814428194113</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>1374.814428194113</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1016.548729587363</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1016.548729587363</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="Y5" t="n">
-        <v>1761.414268258235</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600561</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1358.140854479382</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C8" t="n">
-        <v>989.1783375389703</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D8" t="n">
-        <v>630.9126389322198</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E8" t="n">
-        <v>245.1243863339756</v>
+        <v>918.4296229244749</v>
       </c>
       <c r="F8" t="n">
-        <v>238.1788855847721</v>
+        <v>507.4437181348673</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>493.5203140734582</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1744.740694543504</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.8183646524922</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>382.8183646524922</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>382.8183646524922</v>
+        <v>627.680292366494</v>
       </c>
       <c r="V10" t="n">
-        <v>382.8183646524922</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="W10" t="n">
-        <v>382.8183646524922</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X10" t="n">
-        <v>382.8183646524922</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.8183646524922</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954965</v>
+        <v>110.0328757364144</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954965</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954965</v>
+        <v>110.0328757364144</v>
       </c>
     </row>
     <row r="14">
@@ -5263,7 +5263,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5357,16 +5357,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.148054050878</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="C16" t="n">
-        <v>822.148054050878</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="W16" t="n">
-        <v>1042.940633194408</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="X16" t="n">
-        <v>1042.940633194408</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.148054050878</v>
+        <v>804.0893717830344</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,13 +5515,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>284.1174986139257</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C19" t="n">
-        <v>284.1174986139257</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>284.1174986139257</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>284.1174986139257</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1467.330937227184</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1467.330937227184</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>1467.330937227184</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>1177.913767190223</v>
       </c>
       <c r="X19" t="n">
-        <v>465.7659634441654</v>
+        <v>949.9242162922058</v>
       </c>
       <c r="Y19" t="n">
-        <v>465.7659634441654</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y22" t="n">
-        <v>1322.84934122136</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="23">
@@ -5971,43 +5971,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6071,25 +6071,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.9038434870658</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.055751909234</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>1164.055751909234</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>1164.055751909234</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>337.8571605933279</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735073</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,43 +6694,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>785.4801130615101</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C34" t="n">
-        <v>785.4801130615101</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>785.4801130615101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.92115703528</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X34" t="n">
-        <v>1187.92115703528</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y34" t="n">
-        <v>967.1285778917498</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3941.006808105545</v>
+        <v>734.3105644220436</v>
       </c>
       <c r="C37" t="n">
-        <v>3772.070625177638</v>
+        <v>734.3105644220436</v>
       </c>
       <c r="D37" t="n">
-        <v>3621.953985765302</v>
+        <v>584.1939250097079</v>
       </c>
       <c r="E37" t="n">
-        <v>3474.040892182909</v>
+        <v>436.2808314273148</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>289.3908839294044</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>289.3908839294044</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>4571.437402977332</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X37" t="n">
-        <v>4343.447852079315</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y37" t="n">
-        <v>4122.655272935785</v>
+        <v>734.3105644220436</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,25 +7168,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>254.6298122655692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X40" t="n">
-        <v>1270.926719659885</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.134140516355</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,13 +7402,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7435,28 +7435,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,25 +7478,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W43" t="n">
-        <v>278.8655562905255</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X43" t="n">
-        <v>278.8655562905255</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>755.183133481126</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4391.604587469459</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C46" t="n">
-        <v>4222.668404541552</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="D46" t="n">
-        <v>4072.551765129216</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E46" t="n">
-        <v>3924.638671546823</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048913</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368733</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>4637.069157803799</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X46" t="n">
-        <v>4637.069157803799</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y46" t="n">
-        <v>4573.253052299699</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229581</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>96.03744927814705</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>154.5591946652606</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>72.04392699367529</v>
       </c>
       <c r="W16" t="n">
-        <v>33.0279273303349</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>70.80889040509977</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>190.2780810609778</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>155.4067089030352</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>9.476411694110794</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.4572329392921</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>21.09940539009656</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36.30126157947413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>33.08849621799479</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>130.6844047393603</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>69.08101928738078</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>10.65497486614709</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>10.08817004149506</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>138.6427690886132</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>36.51615797628583</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>94.9293495454511</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.4067089030357</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185699</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185699</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185697</v>
-      </c>
       <c r="E2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="P2" t="n">
         <v>469234.8716852503</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106066</v>
+        <v>-336976.8536106067</v>
       </c>
       <c r="C6" t="n">
+        <v>252991.0256039377</v>
+      </c>
+      <c r="D6" t="n">
         <v>252991.0256039378</v>
       </c>
-      <c r="D6" t="n">
-        <v>252991.0256039376</v>
-      </c>
       <c r="E6" t="n">
-        <v>-162958.1603618013</v>
+        <v>-163932.7516215233</v>
       </c>
       <c r="F6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.284855373</v>
       </c>
       <c r="G6" t="n">
-        <v>362201.8761150945</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="H6" t="n">
-        <v>362201.8761150947</v>
+        <v>361227.2848553732</v>
       </c>
       <c r="I6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="J6" t="n">
-        <v>185778.6569225017</v>
+        <v>184804.0656627801</v>
       </c>
       <c r="K6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.2848553732</v>
       </c>
       <c r="L6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="M6" t="n">
-        <v>227400.8608812577</v>
+        <v>226426.2696215358</v>
       </c>
       <c r="N6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="O6" t="n">
-        <v>362201.8761150945</v>
+        <v>361227.2848553732</v>
       </c>
       <c r="P6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.284855373</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>131.7978163720845</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>8.908088316089049</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.92601408777053</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20.11528310526331</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>191.6032982375352</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>138.1563171092932</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>11.75884232099568</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>383.3219415388927</v>
-      </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>40.67253007865565</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>46.07596752668834</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>186.8376693204369</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>339.4611332181801</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36448,19 +36448,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>429.2320226761599</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36685,13 +36685,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37399,10 +37399,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692235.928681183</v>
+        <v>1697175.191530215</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>268.2021836279155</v>
       </c>
       <c r="E2" t="n">
-        <v>250.1325537001773</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.08467608327369</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>190.5412609087633</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>35.18155893056274</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>78.29200324836461</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>283.2502426857015</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>26.32882004050054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>99.44420492154083</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>12.68762643336725</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>83.63630303086856</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>132.0804316800279</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>180.0937163301527</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>122.6519788371599</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>31.26947999741145</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>47.20011114811118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>66.14085215535403</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>161.4046520073173</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>136.9575509524584</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.0920728594996</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>199.0814306469983</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>253.1488561805826</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>109.2244759954798</v>
       </c>
       <c r="H37" t="n">
-        <v>79.83280908015534</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>109.9634471783214</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>276.1491823570823</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.18921109332413</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>101.2130831850508</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>53.68612347276125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>119.5234351551234</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4312,13 +4312,13 @@
         <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>1289.01781586839</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103785</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="C4" t="n">
-        <v>229.3976778824716</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D4" t="n">
-        <v>79.28103847013585</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E4" t="n">
-        <v>79.28103847013585</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>79.28103847013585</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>79.28103847013585</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>79.28103847013585</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>79.28103847013585</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>246.4894537511404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
         <v>882.8926947117852</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2386.860082298881</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2386.860082298881</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2386.860082298881</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2386.860082298881</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2386.860082298881</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1996.720750323069</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D8" t="n">
-        <v>1304.217875522719</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>918.4296229244749</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>507.4437181348673</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>493.5203140734582</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="U10" t="n">
-        <v>627.680292366494</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="V10" t="n">
-        <v>372.9958041606071</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W10" t="n">
-        <v>372.9958041606071</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X10" t="n">
-        <v>372.9958041606071</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>485.520085263588</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>1099.417155020477</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.0328757364144</v>
+        <v>328.5881531307907</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>328.5881531307907</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169051</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>330.8254548799445</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X13" t="n">
-        <v>330.8254548799445</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.0328757364144</v>
+        <v>510.2366179610304</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>485.520085263588</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1099.417155020477</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>804.0893717830344</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0893717830344</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706986</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883055</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>804.0893717830344</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W16" t="n">
-        <v>804.0893717830344</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X16" t="n">
-        <v>804.0893717830344</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="Y16" t="n">
-        <v>804.0893717830344</v>
+        <v>844.0280401273991</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>729.1316371486756</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1954542207687</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1467.330937227184</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1467.330937227184</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1467.330937227184</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1177.913767190223</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>949.9242162922058</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>729.1316371486756</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.666285013068</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C22" t="n">
-        <v>860.7301020851612</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728254</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1432.107328986838</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1432.107328986838</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1432.107328986838</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>1432.107328986838</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>1432.107328986838</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y22" t="n">
-        <v>1211.314749843308</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="23">
@@ -5971,43 +5971,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>474.7746905116418</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>721.5398184181058</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1335.881268530309</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1112.095853319815</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>822.9672145333731</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>568.2827263274862</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>278.8655562905255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6226,7 +6226,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>665.6859735286132</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870658</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,25 +6694,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1019.424940013486</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>764.7404518075996</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>475.3232817706389</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X34" t="n">
-        <v>247.3337308726216</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.3337308726216</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,13 +6931,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.3105644220436</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="C37" t="n">
-        <v>734.3105644220436</v>
+        <v>764.3004859014862</v>
       </c>
       <c r="D37" t="n">
-        <v>584.1939250097079</v>
+        <v>764.3004859014862</v>
       </c>
       <c r="E37" t="n">
-        <v>436.2808314273148</v>
+        <v>616.3873923190931</v>
       </c>
       <c r="F37" t="n">
-        <v>289.3908839294044</v>
+        <v>469.4974448211827</v>
       </c>
       <c r="G37" t="n">
-        <v>289.3908839294044</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W37" t="n">
-        <v>955.1031435655738</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X37" t="n">
-        <v>955.1031435655738</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.3105644220436</v>
+        <v>933.2366688293931</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>356.2043741116905</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.2912805292974</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.2912805292974</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>796.2722772255036</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>796.2722772255036</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>506.8551071885429</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X40" t="n">
-        <v>278.8655562905255</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>713.5778697504956</v>
+        <v>834.5937666237584</v>
       </c>
       <c r="C43" t="n">
-        <v>544.6416868225887</v>
+        <v>665.6575836958515</v>
       </c>
       <c r="D43" t="n">
-        <v>394.5250474102529</v>
+        <v>515.5409442835157</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>367.6278507011226</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>367.6278507011226</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>199.4525290209432</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>755.183133481126</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>755.183133481126</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X43" t="n">
-        <v>755.183133481126</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y43" t="n">
-        <v>755.183133481126</v>
+        <v>1016.242231453998</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.0685056491545</v>
+        <v>967.1285778917498</v>
       </c>
       <c r="C46" t="n">
-        <v>579.0685056491545</v>
+        <v>798.192394963843</v>
       </c>
       <c r="D46" t="n">
-        <v>524.8400981009108</v>
+        <v>648.0757555515072</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
         <v>208.7516828383384</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X46" t="n">
-        <v>981.5095496229244</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y46" t="n">
-        <v>760.7169704793943</v>
+        <v>967.1285778917498</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>199.739628723116</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>199.739628723116</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.8856946302409</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>154.5591946652606</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>64.97916998734379</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>16.53504133818444</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>72.04392699367529</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.84158962621764</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,19 +23943,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>190.2780810609778</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.23385149845799</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>155.4067089030352</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>36.51615797628597</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>9.476411694110794</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>14.45548819888961</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.34209567542521</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>19.5032227050965</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>133.142098661519</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>33.08849621799479</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>57.26909246789779</v>
       </c>
       <c r="H37" t="n">
-        <v>69.08101928738078</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>56.53012128505614</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>10.08817004149506</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.6427690886132</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>47.70074518248533</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>94.9293495454511</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>26.91052749144573</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.0619185699</v>
-      </c>
       <c r="E2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="H2" t="n">
-        <v>469234.8716852506</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="J2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="N2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="O2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>469234.8716852506</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26496,7 +26496,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106067</v>
+        <v>-336976.8536106069</v>
       </c>
       <c r="C6" t="n">
+        <v>252991.0256039378</v>
+      </c>
+      <c r="D6" t="n">
         <v>252991.0256039377</v>
       </c>
-      <c r="D6" t="n">
-        <v>252991.0256039378</v>
-      </c>
       <c r="E6" t="n">
-        <v>-163932.7516215233</v>
+        <v>-163055.6194877732</v>
       </c>
       <c r="F6" t="n">
-        <v>361227.284855373</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="G6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891223</v>
       </c>
       <c r="H6" t="n">
-        <v>361227.2848553732</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="I6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891227</v>
       </c>
       <c r="J6" t="n">
-        <v>184804.0656627801</v>
+        <v>185681.1977965297</v>
       </c>
       <c r="K6" t="n">
-        <v>361227.2848553732</v>
+        <v>362104.4169891227</v>
       </c>
       <c r="L6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="M6" t="n">
-        <v>226426.2696215358</v>
+        <v>227303.4017552856</v>
       </c>
       <c r="N6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="O6" t="n">
-        <v>361227.2848553732</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="P6" t="n">
-        <v>361227.284855373</v>
+        <v>362104.4169891227</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>86.48085799276743</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7978163720845</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>20.11528310526331</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>61.59638241506468</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>330.0913328404448</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>138.1563171092932</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>112.9202716085209</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>40.67253007865565</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>2.793929914413759</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>186.8376693204369</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110552</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110552</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4611332181801</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36448,19 +36448,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36685,13 +36685,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>693.6972596887387</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
